--- a/src/web/frontend/resources/professors.xlsx
+++ b/src/web/frontend/resources/professors.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duarte\Documents\GitHub\examCalendar\projeto\calendar_generator_engine\src\test\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\git\examCalendar\src\web\frontend\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>EIC0009</t>
   </si>
@@ -158,30 +158,9 @@
     <t>gb</t>
   </si>
   <si>
-    <t>EIC0063</t>
-  </si>
-  <si>
-    <t>EIC0064</t>
-  </si>
-  <si>
-    <t>emc</t>
-  </si>
-  <si>
-    <t>EIC0065</t>
-  </si>
-  <si>
-    <t>EIC0092</t>
-  </si>
-  <si>
     <t>EIC0076</t>
   </si>
   <si>
-    <t>rcs</t>
-  </si>
-  <si>
-    <t>mta</t>
-  </si>
-  <si>
     <t>gtd</t>
   </si>
   <si>
@@ -195,19 +174,13 @@
   </si>
   <si>
     <t>apr</t>
-  </si>
-  <si>
-    <t>EIC0087</t>
-  </si>
-  <si>
-    <t>mcr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +194,14 @@
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,9 +224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -704,7 +686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -712,7 +694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -720,7 +702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -728,7 +710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -736,7 +718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -744,7 +726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -752,72 +734,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
         <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>